--- a/source/data/topologies/Tinet_topology.xlsx
+++ b/source/data/topologies/Tinet_topology.xlsx
@@ -8,14 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="RTT-Capacity" sheetId="1" r:id="rId1"/>
-    <sheet name="Flows" sheetId="2" r:id="rId2"/>
+    <sheet name="Fibers" sheetId="2" r:id="rId2"/>
+    <sheet name="Flows" sheetId="3" r:id="rId3"/>
+    <sheet name="L3Nodes" sheetId="4" r:id="rId4"/>
+    <sheet name="L3Links" sheetId="5" r:id="rId5"/>
+    <sheet name="Spofs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="345">
   <si>
     <t>LinkName</t>
   </si>
@@ -35,271 +39,271 @@
     <t>CapacityMax</t>
   </si>
   <si>
-    <t>Link-0</t>
-  </si>
-  <si>
-    <t>Link-1</t>
-  </si>
-  <si>
-    <t>Link-2</t>
-  </si>
-  <si>
-    <t>Link-3</t>
-  </si>
-  <si>
-    <t>Link-4</t>
-  </si>
-  <si>
-    <t>Link-5</t>
-  </si>
-  <si>
-    <t>Link-6</t>
-  </si>
-  <si>
-    <t>Link-7</t>
-  </si>
-  <si>
-    <t>Link-8</t>
-  </si>
-  <si>
-    <t>Link-9</t>
-  </si>
-  <si>
-    <t>Link-10</t>
-  </si>
-  <si>
-    <t>Link-11</t>
-  </si>
-  <si>
-    <t>Link-12</t>
-  </si>
-  <si>
-    <t>Link-13</t>
-  </si>
-  <si>
-    <t>Link-14</t>
-  </si>
-  <si>
-    <t>Link-15</t>
-  </si>
-  <si>
-    <t>Link-16</t>
-  </si>
-  <si>
-    <t>Link-17</t>
-  </si>
-  <si>
-    <t>Link-18</t>
-  </si>
-  <si>
-    <t>Link-19</t>
-  </si>
-  <si>
-    <t>Link-20</t>
-  </si>
-  <si>
-    <t>Link-21</t>
-  </si>
-  <si>
-    <t>Link-22</t>
-  </si>
-  <si>
-    <t>Link-23</t>
-  </si>
-  <si>
-    <t>Link-24</t>
-  </si>
-  <si>
-    <t>Link-25</t>
-  </si>
-  <si>
-    <t>Link-26</t>
-  </si>
-  <si>
-    <t>Link-27</t>
-  </si>
-  <si>
-    <t>Link-28</t>
-  </si>
-  <si>
-    <t>Link-29</t>
-  </si>
-  <si>
-    <t>Link-30</t>
-  </si>
-  <si>
-    <t>Link-31</t>
-  </si>
-  <si>
-    <t>Link-32</t>
-  </si>
-  <si>
-    <t>Link-33</t>
-  </si>
-  <si>
-    <t>Link-34</t>
-  </si>
-  <si>
-    <t>Link-35</t>
-  </si>
-  <si>
-    <t>Link-36</t>
-  </si>
-  <si>
-    <t>Link-37</t>
-  </si>
-  <si>
-    <t>Link-38</t>
-  </si>
-  <si>
-    <t>Link-39</t>
-  </si>
-  <si>
-    <t>Link-40</t>
-  </si>
-  <si>
-    <t>Link-41</t>
-  </si>
-  <si>
-    <t>Link-42</t>
-  </si>
-  <si>
-    <t>Link-43</t>
-  </si>
-  <si>
-    <t>Link-44</t>
-  </si>
-  <si>
-    <t>Link-45</t>
-  </si>
-  <si>
-    <t>Link-46</t>
-  </si>
-  <si>
-    <t>Link-47</t>
-  </si>
-  <si>
-    <t>Link-48</t>
-  </si>
-  <si>
-    <t>Link-49</t>
-  </si>
-  <si>
-    <t>Link-50</t>
-  </si>
-  <si>
-    <t>Link-51</t>
-  </si>
-  <si>
-    <t>Link-52</t>
-  </si>
-  <si>
-    <t>Link-53</t>
-  </si>
-  <si>
-    <t>Link-54</t>
-  </si>
-  <si>
-    <t>Link-55</t>
-  </si>
-  <si>
-    <t>Link-56</t>
-  </si>
-  <si>
-    <t>Link-57</t>
-  </si>
-  <si>
-    <t>Link-58</t>
-  </si>
-  <si>
-    <t>Link-59</t>
-  </si>
-  <si>
-    <t>Link-60</t>
-  </si>
-  <si>
-    <t>Link-61</t>
-  </si>
-  <si>
-    <t>Link-62</t>
-  </si>
-  <si>
-    <t>Link-63</t>
-  </si>
-  <si>
-    <t>Link-64</t>
-  </si>
-  <si>
-    <t>Link-65</t>
-  </si>
-  <si>
-    <t>Link-66</t>
-  </si>
-  <si>
-    <t>Link-67</t>
-  </si>
-  <si>
-    <t>Link-68</t>
-  </si>
-  <si>
-    <t>Link-69</t>
-  </si>
-  <si>
-    <t>Link-70</t>
-  </si>
-  <si>
-    <t>Link-71</t>
-  </si>
-  <si>
-    <t>Link-72</t>
-  </si>
-  <si>
-    <t>Link-73</t>
-  </si>
-  <si>
-    <t>Link-74</t>
-  </si>
-  <si>
-    <t>Link-75</t>
-  </si>
-  <si>
-    <t>Link-76</t>
-  </si>
-  <si>
-    <t>Link-77</t>
-  </si>
-  <si>
-    <t>Link-78</t>
-  </si>
-  <si>
-    <t>Link-79</t>
-  </si>
-  <si>
-    <t>Link-80</t>
-  </si>
-  <si>
-    <t>Link-81</t>
-  </si>
-  <si>
-    <t>Link-82</t>
-  </si>
-  <si>
-    <t>Link-83</t>
-  </si>
-  <si>
-    <t>Link-84</t>
-  </si>
-  <si>
-    <t>Link-85</t>
-  </si>
-  <si>
-    <t>Link-86</t>
-  </si>
-  <si>
-    <t>Link-87</t>
-  </si>
-  <si>
-    <t>Link-88</t>
+    <t>Link_0</t>
+  </si>
+  <si>
+    <t>Link_1</t>
+  </si>
+  <si>
+    <t>Link_2</t>
+  </si>
+  <si>
+    <t>Link_3</t>
+  </si>
+  <si>
+    <t>Link_4</t>
+  </si>
+  <si>
+    <t>Link_5</t>
+  </si>
+  <si>
+    <t>Link_6</t>
+  </si>
+  <si>
+    <t>Link_7</t>
+  </si>
+  <si>
+    <t>Link_8</t>
+  </si>
+  <si>
+    <t>Link_9</t>
+  </si>
+  <si>
+    <t>Link_10</t>
+  </si>
+  <si>
+    <t>Link_11</t>
+  </si>
+  <si>
+    <t>Link_12</t>
+  </si>
+  <si>
+    <t>Link_13</t>
+  </si>
+  <si>
+    <t>Link_14</t>
+  </si>
+  <si>
+    <t>Link_15</t>
+  </si>
+  <si>
+    <t>Link_16</t>
+  </si>
+  <si>
+    <t>Link_17</t>
+  </si>
+  <si>
+    <t>Link_18</t>
+  </si>
+  <si>
+    <t>Link_19</t>
+  </si>
+  <si>
+    <t>Link_20</t>
+  </si>
+  <si>
+    <t>Link_21</t>
+  </si>
+  <si>
+    <t>Link_22</t>
+  </si>
+  <si>
+    <t>Link_23</t>
+  </si>
+  <si>
+    <t>Link_24</t>
+  </si>
+  <si>
+    <t>Link_25</t>
+  </si>
+  <si>
+    <t>Link_26</t>
+  </si>
+  <si>
+    <t>Link_27</t>
+  </si>
+  <si>
+    <t>Link_28</t>
+  </si>
+  <si>
+    <t>Link_29</t>
+  </si>
+  <si>
+    <t>Link_30</t>
+  </si>
+  <si>
+    <t>Link_31</t>
+  </si>
+  <si>
+    <t>Link_32</t>
+  </si>
+  <si>
+    <t>Link_33</t>
+  </si>
+  <si>
+    <t>Link_34</t>
+  </si>
+  <si>
+    <t>Link_35</t>
+  </si>
+  <si>
+    <t>Link_36</t>
+  </si>
+  <si>
+    <t>Link_37</t>
+  </si>
+  <si>
+    <t>Link_38</t>
+  </si>
+  <si>
+    <t>Link_39</t>
+  </si>
+  <si>
+    <t>Link_40</t>
+  </si>
+  <si>
+    <t>Link_41</t>
+  </si>
+  <si>
+    <t>Link_42</t>
+  </si>
+  <si>
+    <t>Link_43</t>
+  </si>
+  <si>
+    <t>Link_44</t>
+  </si>
+  <si>
+    <t>Link_45</t>
+  </si>
+  <si>
+    <t>Link_46</t>
+  </si>
+  <si>
+    <t>Link_47</t>
+  </si>
+  <si>
+    <t>Link_48</t>
+  </si>
+  <si>
+    <t>Link_49</t>
+  </si>
+  <si>
+    <t>Link_50</t>
+  </si>
+  <si>
+    <t>Link_51</t>
+  </si>
+  <si>
+    <t>Link_52</t>
+  </si>
+  <si>
+    <t>Link_53</t>
+  </si>
+  <si>
+    <t>Link_54</t>
+  </si>
+  <si>
+    <t>Link_55</t>
+  </si>
+  <si>
+    <t>Link_56</t>
+  </si>
+  <si>
+    <t>Link_57</t>
+  </si>
+  <si>
+    <t>Link_58</t>
+  </si>
+  <si>
+    <t>Link_59</t>
+  </si>
+  <si>
+    <t>Link_60</t>
+  </si>
+  <si>
+    <t>Link_61</t>
+  </si>
+  <si>
+    <t>Link_62</t>
+  </si>
+  <si>
+    <t>Link_63</t>
+  </si>
+  <si>
+    <t>Link_64</t>
+  </si>
+  <si>
+    <t>Link_65</t>
+  </si>
+  <si>
+    <t>Link_66</t>
+  </si>
+  <si>
+    <t>Link_67</t>
+  </si>
+  <si>
+    <t>Link_68</t>
+  </si>
+  <si>
+    <t>Link_69</t>
+  </si>
+  <si>
+    <t>Link_70</t>
+  </si>
+  <si>
+    <t>Link_71</t>
+  </si>
+  <si>
+    <t>Link_72</t>
+  </si>
+  <si>
+    <t>Link_73</t>
+  </si>
+  <si>
+    <t>Link_74</t>
+  </si>
+  <si>
+    <t>Link_75</t>
+  </si>
+  <si>
+    <t>Link_76</t>
+  </si>
+  <si>
+    <t>Link_77</t>
+  </si>
+  <si>
+    <t>Link_78</t>
+  </si>
+  <si>
+    <t>Link_79</t>
+  </si>
+  <si>
+    <t>Link_80</t>
+  </si>
+  <si>
+    <t>Link_81</t>
+  </si>
+  <si>
+    <t>Link_82</t>
+  </si>
+  <si>
+    <t>Link_83</t>
+  </si>
+  <si>
+    <t>Link_84</t>
+  </si>
+  <si>
+    <t>Link_85</t>
+  </si>
+  <si>
+    <t>Link_86</t>
+  </si>
+  <si>
+    <t>Link_87</t>
+  </si>
+  <si>
+    <t>Link_88</t>
   </si>
   <si>
     <t>Ne_0</t>
@@ -461,6 +465,24 @@
     <t>Barcelona_36</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>dst</t>
+  </si>
+  <si>
+    <t>rtt</t>
+  </si>
+  <si>
+    <t>max_fp</t>
+  </si>
+  <si>
+    <t>spectrum_size_ghz_per_fp</t>
+  </si>
+  <si>
     <t>COS</t>
   </si>
   <si>
@@ -468,6 +490,570 @@
   </si>
   <si>
     <t>BRONZE</t>
+  </si>
+  <si>
+    <t>l1_node</t>
+  </si>
+  <si>
+    <t>stub</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>min_capacity_gbps</t>
+  </si>
+  <si>
+    <t>max_capacity_gbps</t>
+  </si>
+  <si>
+    <t>final_capacity_gpbs</t>
+  </si>
+  <si>
+    <t>igp</t>
+  </si>
+  <si>
+    <t>fiber_name_map_spectrum</t>
+  </si>
+  <si>
+    <t>ip_Link_0</t>
+  </si>
+  <si>
+    <t>ip_Link_1</t>
+  </si>
+  <si>
+    <t>ip_Link_2</t>
+  </si>
+  <si>
+    <t>ip_Link_3</t>
+  </si>
+  <si>
+    <t>ip_Link_4</t>
+  </si>
+  <si>
+    <t>ip_Link_5</t>
+  </si>
+  <si>
+    <t>ip_Link_6</t>
+  </si>
+  <si>
+    <t>ip_Link_7</t>
+  </si>
+  <si>
+    <t>ip_Link_8</t>
+  </si>
+  <si>
+    <t>ip_Link_9</t>
+  </si>
+  <si>
+    <t>ip_Link_10</t>
+  </si>
+  <si>
+    <t>ip_Link_11</t>
+  </si>
+  <si>
+    <t>ip_Link_12</t>
+  </si>
+  <si>
+    <t>ip_Link_13</t>
+  </si>
+  <si>
+    <t>ip_Link_14</t>
+  </si>
+  <si>
+    <t>ip_Link_15</t>
+  </si>
+  <si>
+    <t>ip_Link_16</t>
+  </si>
+  <si>
+    <t>ip_Link_17</t>
+  </si>
+  <si>
+    <t>ip_Link_18</t>
+  </si>
+  <si>
+    <t>ip_Link_19</t>
+  </si>
+  <si>
+    <t>ip_Link_20</t>
+  </si>
+  <si>
+    <t>ip_Link_21</t>
+  </si>
+  <si>
+    <t>ip_Link_22</t>
+  </si>
+  <si>
+    <t>ip_Link_23</t>
+  </si>
+  <si>
+    <t>ip_Link_24</t>
+  </si>
+  <si>
+    <t>ip_Link_25</t>
+  </si>
+  <si>
+    <t>ip_Link_26</t>
+  </si>
+  <si>
+    <t>ip_Link_27</t>
+  </si>
+  <si>
+    <t>ip_Link_28</t>
+  </si>
+  <si>
+    <t>ip_Link_29</t>
+  </si>
+  <si>
+    <t>ip_Link_30</t>
+  </si>
+  <si>
+    <t>ip_Link_31</t>
+  </si>
+  <si>
+    <t>ip_Link_32</t>
+  </si>
+  <si>
+    <t>ip_Link_33</t>
+  </si>
+  <si>
+    <t>ip_Link_34</t>
+  </si>
+  <si>
+    <t>ip_Link_35</t>
+  </si>
+  <si>
+    <t>ip_Link_36</t>
+  </si>
+  <si>
+    <t>ip_Link_37</t>
+  </si>
+  <si>
+    <t>ip_Link_38</t>
+  </si>
+  <si>
+    <t>ip_Link_39</t>
+  </si>
+  <si>
+    <t>ip_Link_40</t>
+  </si>
+  <si>
+    <t>ip_Link_41</t>
+  </si>
+  <si>
+    <t>ip_Link_42</t>
+  </si>
+  <si>
+    <t>ip_Link_43</t>
+  </si>
+  <si>
+    <t>ip_Link_44</t>
+  </si>
+  <si>
+    <t>ip_Link_45</t>
+  </si>
+  <si>
+    <t>ip_Link_46</t>
+  </si>
+  <si>
+    <t>ip_Link_47</t>
+  </si>
+  <si>
+    <t>ip_Link_48</t>
+  </si>
+  <si>
+    <t>ip_Link_49</t>
+  </si>
+  <si>
+    <t>ip_Link_50</t>
+  </si>
+  <si>
+    <t>ip_Link_51</t>
+  </si>
+  <si>
+    <t>ip_Link_52</t>
+  </si>
+  <si>
+    <t>ip_Link_53</t>
+  </si>
+  <si>
+    <t>ip_Link_54</t>
+  </si>
+  <si>
+    <t>ip_Link_55</t>
+  </si>
+  <si>
+    <t>ip_Link_56</t>
+  </si>
+  <si>
+    <t>ip_Link_57</t>
+  </si>
+  <si>
+    <t>ip_Link_58</t>
+  </si>
+  <si>
+    <t>ip_Link_59</t>
+  </si>
+  <si>
+    <t>ip_Link_60</t>
+  </si>
+  <si>
+    <t>ip_Link_61</t>
+  </si>
+  <si>
+    <t>ip_Link_62</t>
+  </si>
+  <si>
+    <t>ip_Link_63</t>
+  </si>
+  <si>
+    <t>ip_Link_64</t>
+  </si>
+  <si>
+    <t>ip_Link_65</t>
+  </si>
+  <si>
+    <t>ip_Link_66</t>
+  </si>
+  <si>
+    <t>ip_Link_67</t>
+  </si>
+  <si>
+    <t>ip_Link_68</t>
+  </si>
+  <si>
+    <t>ip_Link_69</t>
+  </si>
+  <si>
+    <t>ip_Link_70</t>
+  </si>
+  <si>
+    <t>ip_Link_71</t>
+  </si>
+  <si>
+    <t>ip_Link_72</t>
+  </si>
+  <si>
+    <t>ip_Link_73</t>
+  </si>
+  <si>
+    <t>ip_Link_74</t>
+  </si>
+  <si>
+    <t>ip_Link_75</t>
+  </si>
+  <si>
+    <t>ip_Link_76</t>
+  </si>
+  <si>
+    <t>ip_Link_77</t>
+  </si>
+  <si>
+    <t>ip_Link_78</t>
+  </si>
+  <si>
+    <t>ip_Link_79</t>
+  </si>
+  <si>
+    <t>ip_Link_80</t>
+  </si>
+  <si>
+    <t>ip_Link_81</t>
+  </si>
+  <si>
+    <t>ip_Link_82</t>
+  </si>
+  <si>
+    <t>ip_Link_83</t>
+  </si>
+  <si>
+    <t>ip_Link_84</t>
+  </si>
+  <si>
+    <t>ip_Link_85</t>
+  </si>
+  <si>
+    <t>ip_Link_86</t>
+  </si>
+  <si>
+    <t>ip_Link_87</t>
+  </si>
+  <si>
+    <t>ip_Link_88</t>
+  </si>
+  <si>
+    <t>Link_0:5</t>
+  </si>
+  <si>
+    <t>Link_1:5</t>
+  </si>
+  <si>
+    <t>Link_2:5</t>
+  </si>
+  <si>
+    <t>Link_3:5</t>
+  </si>
+  <si>
+    <t>Link_4:5</t>
+  </si>
+  <si>
+    <t>Link_5:5</t>
+  </si>
+  <si>
+    <t>Link_6:5</t>
+  </si>
+  <si>
+    <t>Link_7:5</t>
+  </si>
+  <si>
+    <t>Link_8:5</t>
+  </si>
+  <si>
+    <t>Link_9:5</t>
+  </si>
+  <si>
+    <t>Link_10:5</t>
+  </si>
+  <si>
+    <t>Link_11:5</t>
+  </si>
+  <si>
+    <t>Link_12:5</t>
+  </si>
+  <si>
+    <t>Link_13:5</t>
+  </si>
+  <si>
+    <t>Link_14:5</t>
+  </si>
+  <si>
+    <t>Link_15:5</t>
+  </si>
+  <si>
+    <t>Link_16:5</t>
+  </si>
+  <si>
+    <t>Link_17:5</t>
+  </si>
+  <si>
+    <t>Link_18:5</t>
+  </si>
+  <si>
+    <t>Link_19:5</t>
+  </si>
+  <si>
+    <t>Link_20:5</t>
+  </si>
+  <si>
+    <t>Link_21:5</t>
+  </si>
+  <si>
+    <t>Link_22:5</t>
+  </si>
+  <si>
+    <t>Link_23:5</t>
+  </si>
+  <si>
+    <t>Link_24:5</t>
+  </si>
+  <si>
+    <t>Link_25:5</t>
+  </si>
+  <si>
+    <t>Link_26:5</t>
+  </si>
+  <si>
+    <t>Link_27:5</t>
+  </si>
+  <si>
+    <t>Link_28:5</t>
+  </si>
+  <si>
+    <t>Link_29:5</t>
+  </si>
+  <si>
+    <t>Link_30:5</t>
+  </si>
+  <si>
+    <t>Link_31:5</t>
+  </si>
+  <si>
+    <t>Link_32:5</t>
+  </si>
+  <si>
+    <t>Link_33:5</t>
+  </si>
+  <si>
+    <t>Link_34:5</t>
+  </si>
+  <si>
+    <t>Link_35:5</t>
+  </si>
+  <si>
+    <t>Link_36:5</t>
+  </si>
+  <si>
+    <t>Link_37:5</t>
+  </si>
+  <si>
+    <t>Link_38:5</t>
+  </si>
+  <si>
+    <t>Link_39:5</t>
+  </si>
+  <si>
+    <t>Link_40:5</t>
+  </si>
+  <si>
+    <t>Link_41:5</t>
+  </si>
+  <si>
+    <t>Link_42:5</t>
+  </si>
+  <si>
+    <t>Link_43:5</t>
+  </si>
+  <si>
+    <t>Link_44:5</t>
+  </si>
+  <si>
+    <t>Link_45:5</t>
+  </si>
+  <si>
+    <t>Link_46:5</t>
+  </si>
+  <si>
+    <t>Link_47:5</t>
+  </si>
+  <si>
+    <t>Link_48:5</t>
+  </si>
+  <si>
+    <t>Link_49:5</t>
+  </si>
+  <si>
+    <t>Link_50:5</t>
+  </si>
+  <si>
+    <t>Link_51:5</t>
+  </si>
+  <si>
+    <t>Link_52:5</t>
+  </si>
+  <si>
+    <t>Link_53:5</t>
+  </si>
+  <si>
+    <t>Link_54:5</t>
+  </si>
+  <si>
+    <t>Link_55:5</t>
+  </si>
+  <si>
+    <t>Link_56:5</t>
+  </si>
+  <si>
+    <t>Link_57:5</t>
+  </si>
+  <si>
+    <t>Link_58:5</t>
+  </si>
+  <si>
+    <t>Link_59:5</t>
+  </si>
+  <si>
+    <t>Link_60:5</t>
+  </si>
+  <si>
+    <t>Link_61:5</t>
+  </si>
+  <si>
+    <t>Link_62:5</t>
+  </si>
+  <si>
+    <t>Link_63:5</t>
+  </si>
+  <si>
+    <t>Link_64:5</t>
+  </si>
+  <si>
+    <t>Link_65:5</t>
+  </si>
+  <si>
+    <t>Link_66:5</t>
+  </si>
+  <si>
+    <t>Link_67:5</t>
+  </si>
+  <si>
+    <t>Link_68:5</t>
+  </si>
+  <si>
+    <t>Link_69:5</t>
+  </si>
+  <si>
+    <t>Link_70:5</t>
+  </si>
+  <si>
+    <t>Link_71:5</t>
+  </si>
+  <si>
+    <t>Link_72:5</t>
+  </si>
+  <si>
+    <t>Link_73:5</t>
+  </si>
+  <si>
+    <t>Link_74:5</t>
+  </si>
+  <si>
+    <t>Link_75:5</t>
+  </si>
+  <si>
+    <t>Link_76:5</t>
+  </si>
+  <si>
+    <t>Link_77:5</t>
+  </si>
+  <si>
+    <t>Link_78:5</t>
+  </si>
+  <si>
+    <t>Link_79:5</t>
+  </si>
+  <si>
+    <t>Link_80:5</t>
+  </si>
+  <si>
+    <t>Link_81:5</t>
+  </si>
+  <si>
+    <t>Link_82:5</t>
+  </si>
+  <si>
+    <t>Link_83:5</t>
+  </si>
+  <si>
+    <t>Link_84:5</t>
+  </si>
+  <si>
+    <t>Link_85:5</t>
+  </si>
+  <si>
+    <t>Link_86:5</t>
+  </si>
+  <si>
+    <t>Link_87:5</t>
+  </si>
+  <si>
+    <t>Link_88:5</t>
+  </si>
+  <si>
+    <t>fiber_names</t>
+  </si>
+  <si>
+    <t>cos_to_protect</t>
   </si>
 </sst>
 </file>
@@ -865,7 +1451,7 @@
         <v>96</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -911,7 +1497,7 @@
         <v>137</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -934,7 +1520,7 @@
         <v>103</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -957,7 +1543,7 @@
         <v>133</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1003,7 +1589,7 @@
         <v>141</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1049,7 +1635,7 @@
         <v>99</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1095,7 +1681,7 @@
         <v>142</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1118,7 +1704,7 @@
         <v>101</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1141,7 +1727,7 @@
         <v>143</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1210,7 +1796,7 @@
         <v>142</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1233,7 +1819,7 @@
         <v>101</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1256,7 +1842,7 @@
         <v>102</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1279,7 +1865,7 @@
         <v>120</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1302,7 +1888,7 @@
         <v>121</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1348,7 +1934,7 @@
         <v>126</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1394,7 +1980,7 @@
         <v>118</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1417,7 +2003,7 @@
         <v>144</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1440,7 +2026,7 @@
         <v>143</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1463,7 +2049,7 @@
         <v>104</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1532,7 +2118,7 @@
         <v>135</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1555,7 +2141,7 @@
         <v>145</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1601,7 +2187,7 @@
         <v>115</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1624,7 +2210,7 @@
         <v>126</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1693,7 +2279,7 @@
         <v>125</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1739,7 +2325,7 @@
         <v>124</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1808,7 +2394,7 @@
         <v>126</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1831,7 +2417,7 @@
         <v>126</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1854,7 +2440,7 @@
         <v>146</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1923,7 +2509,7 @@
         <v>115</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1946,7 +2532,7 @@
         <v>146</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1969,7 +2555,7 @@
         <v>131</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1992,7 +2578,7 @@
         <v>147</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2015,7 +2601,7 @@
         <v>128</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2038,7 +2624,7 @@
         <v>127</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2084,7 +2670,7 @@
         <v>123</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2130,7 +2716,7 @@
         <v>124</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2153,7 +2739,7 @@
         <v>121</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2176,7 +2762,7 @@
         <v>144</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2222,7 +2808,7 @@
         <v>137</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2245,7 +2831,7 @@
         <v>135</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2268,7 +2854,7 @@
         <v>136</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2291,7 +2877,7 @@
         <v>126</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2314,7 +2900,7 @@
         <v>126</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2337,7 +2923,7 @@
         <v>129</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2360,7 +2946,7 @@
         <v>129</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2406,7 +2992,7 @@
         <v>128</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2452,7 +3038,7 @@
         <v>146</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2475,7 +3061,7 @@
         <v>147</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2498,7 +3084,7 @@
         <v>128</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2521,7 +3107,7 @@
         <v>143</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2544,7 +3130,7 @@
         <v>129</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2567,7 +3153,7 @@
         <v>146</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2590,7 +3176,7 @@
         <v>130</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2636,7 +3222,7 @@
         <v>146</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2682,7 +3268,7 @@
         <v>140</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2705,7 +3291,7 @@
         <v>134</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2751,7 +3337,7 @@
         <v>135</v>
       </c>
       <c r="E84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2774,7 +3360,7 @@
         <v>136</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2820,7 +3406,7 @@
         <v>138</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2866,7 +3452,7 @@
         <v>139</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2889,7 +3475,7 @@
         <v>140</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2904,6 +3490,2086 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>50</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>50</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>50</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>50</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>50</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>50</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>132</v>
+      </c>
+      <c r="D80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>50</v>
+      </c>
+      <c r="G81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>50</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>50</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>50</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>50</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>50</v>
+      </c>
+      <c r="G87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>50</v>
+      </c>
+      <c r="G88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>50</v>
+      </c>
+      <c r="G89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>50</v>
+      </c>
+      <c r="G90">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F90"/>
   <sheetViews>
@@ -2922,10 +5588,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2942,10 +5608,10 @@
         <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F2">
-        <v>579</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2962,10 +5628,10 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F3">
-        <v>640</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2982,10 +5648,10 @@
         <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F4">
-        <v>356</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3002,10 +5668,10 @@
         <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F5">
-        <v>487</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3022,10 +5688,10 @@
         <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F6">
-        <v>802</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3042,10 +5708,10 @@
         <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F7">
-        <v>958</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3062,10 +5728,10 @@
         <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F8">
-        <v>406</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3082,10 +5748,10 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3102,10 +5768,10 @@
         <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F10">
-        <v>592</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3122,10 +5788,10 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3142,10 +5808,10 @@
         <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F12">
-        <v>646</v>
+        <v>952</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3162,10 +5828,10 @@
         <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F13">
-        <v>419</v>
+        <v>916</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3182,10 +5848,10 @@
         <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F14">
-        <v>810</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3202,10 +5868,10 @@
         <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F15">
-        <v>855</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3222,10 +5888,10 @@
         <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3242,10 +5908,10 @@
         <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F17">
-        <v>663</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3262,10 +5928,10 @@
         <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F18">
-        <v>962</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3282,10 +5948,10 @@
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F19">
-        <v>342</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3302,10 +5968,10 @@
         <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F20">
-        <v>202</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3322,10 +5988,10 @@
         <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F21">
-        <v>803</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3342,10 +6008,10 @@
         <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F22">
-        <v>221</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3362,10 +6028,10 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F23">
-        <v>83</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3382,10 +6048,10 @@
         <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F24">
-        <v>98</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3402,10 +6068,10 @@
         <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F25">
-        <v>701</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3422,10 +6088,10 @@
         <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F26">
-        <v>620</v>
+        <v>983</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3442,10 +6108,10 @@
         <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F27">
-        <v>393</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3462,10 +6128,10 @@
         <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F28">
-        <v>242</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3482,10 +6148,10 @@
         <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F29">
-        <v>943</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3502,10 +6168,10 @@
         <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F30">
-        <v>910</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3522,10 +6188,10 @@
         <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F31">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3542,10 +6208,10 @@
         <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F32">
-        <v>303</v>
+        <v>701</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3562,10 +6228,10 @@
         <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F33">
-        <v>485</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3582,10 +6248,10 @@
         <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F34">
-        <v>705</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3602,10 +6268,10 @@
         <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F35">
-        <v>858</v>
+        <v>903</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3622,10 +6288,10 @@
         <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F36">
-        <v>767</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3642,10 +6308,10 @@
         <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F37">
-        <v>302</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3662,10 +6328,10 @@
         <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F38">
-        <v>857</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3682,10 +6348,10 @@
         <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F39">
-        <v>78</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3702,10 +6368,10 @@
         <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F40">
-        <v>220</v>
+        <v>969</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3722,10 +6388,10 @@
         <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F41">
-        <v>512</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3742,10 +6408,10 @@
         <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F42">
-        <v>699</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3762,10 +6428,10 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F43">
-        <v>891</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3782,10 +6448,10 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F44">
-        <v>833</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3802,10 +6468,10 @@
         <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F45">
-        <v>957</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3822,10 +6488,10 @@
         <v>113</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F46">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3842,10 +6508,10 @@
         <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F47">
-        <v>554</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3862,10 +6528,10 @@
         <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F48">
-        <v>143</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3882,10 +6548,10 @@
         <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F49">
-        <v>193</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3902,10 +6568,10 @@
         <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F50">
-        <v>272</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3922,10 +6588,10 @@
         <v>147</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>658</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3942,10 +6608,10 @@
         <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F52">
-        <v>490</v>
+        <v>824</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3962,10 +6628,10 @@
         <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3982,10 +6648,10 @@
         <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F54">
-        <v>460</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4002,10 +6668,10 @@
         <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F55">
-        <v>869</v>
+        <v>622</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4022,10 +6688,10 @@
         <v>121</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F56">
-        <v>755</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4042,10 +6708,10 @@
         <v>124</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F57">
-        <v>850</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4062,10 +6728,10 @@
         <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F58">
-        <v>257</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4082,10 +6748,10 @@
         <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F59">
-        <v>789</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4102,10 +6768,10 @@
         <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F60">
-        <v>356</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4122,10 +6788,10 @@
         <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F61">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4142,10 +6808,10 @@
         <v>135</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F62">
-        <v>796</v>
+        <v>737</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4162,10 +6828,10 @@
         <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F63">
-        <v>973</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4182,10 +6848,10 @@
         <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F64">
-        <v>549</v>
+        <v>860</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4202,10 +6868,10 @@
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F65">
-        <v>608</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4222,10 +6888,10 @@
         <v>129</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F66">
-        <v>277</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4242,10 +6908,10 @@
         <v>129</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F67">
-        <v>609</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4262,10 +6928,10 @@
         <v>131</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F68">
-        <v>205</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4282,10 +6948,10 @@
         <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F69">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4302,10 +6968,10 @@
         <v>131</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F70">
-        <v>956</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4322,10 +6988,10 @@
         <v>146</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F71">
-        <v>896</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4342,10 +7008,10 @@
         <v>147</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F72">
-        <v>968</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4362,10 +7028,10 @@
         <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F73">
-        <v>59</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4382,10 +7048,10 @@
         <v>143</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F74">
-        <v>527</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4402,10 +7068,10 @@
         <v>129</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F75">
-        <v>949</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4422,10 +7088,10 @@
         <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F76">
-        <v>14</v>
+        <v>884</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4442,10 +7108,10 @@
         <v>130</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F77">
-        <v>776</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4462,10 +7128,10 @@
         <v>131</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F78">
-        <v>473</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4482,10 +7148,10 @@
         <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F79">
-        <v>27</v>
+        <v>635</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4502,10 +7168,10 @@
         <v>139</v>
       </c>
       <c r="E80" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F80">
-        <v>87</v>
+        <v>904</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4522,10 +7188,10 @@
         <v>140</v>
       </c>
       <c r="E81" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F81">
-        <v>973</v>
+        <v>723</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4542,10 +7208,10 @@
         <v>134</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F82">
-        <v>96</v>
+        <v>781</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4562,10 +7228,10 @@
         <v>137</v>
       </c>
       <c r="E83" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F83">
-        <v>602</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4582,10 +7248,10 @@
         <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F84">
-        <v>405</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4602,10 +7268,10 @@
         <v>136</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F85">
-        <v>888</v>
+        <v>433</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4622,10 +7288,10 @@
         <v>138</v>
       </c>
       <c r="E86" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F86">
-        <v>200</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4642,10 +7308,10 @@
         <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F87">
-        <v>869</v>
+        <v>786</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4662,10 +7328,10 @@
         <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F88">
-        <v>345</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4682,10 +7348,10 @@
         <v>139</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F89">
-        <v>993</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4702,10 +7368,3417 @@
         <v>140</v>
       </c>
       <c r="E90" t="s">
+        <v>156</v>
+      </c>
+      <c r="F90">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>222</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>723</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>883</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>455</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>443</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>702</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>639</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>306</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>728</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>878</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>438</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>504</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>286</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>211</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <v>727</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18">
+        <v>304</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="G19">
+        <v>425</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20">
+        <v>228</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>618</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22">
+        <v>400</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>837</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>893</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1000</v>
+      </c>
+      <c r="G25">
+        <v>584</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>625</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
+        <v>296</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+      <c r="G28">
+        <v>789</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
+      <c r="G29">
+        <v>435</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30">
+        <v>627</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1000</v>
+      </c>
+      <c r="G31">
+        <v>668</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <v>22</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33">
+        <v>952</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1000</v>
+      </c>
+      <c r="G34">
+        <v>118</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1000</v>
+      </c>
+      <c r="G35">
+        <v>311</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1000</v>
+      </c>
+      <c r="G36">
+        <v>885</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1000</v>
+      </c>
+      <c r="G37">
+        <v>997</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1000</v>
+      </c>
+      <c r="G38">
+        <v>777</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1000</v>
+      </c>
+      <c r="G39">
+        <v>413</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40">
+        <v>933</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1000</v>
+      </c>
+      <c r="G41">
+        <v>632</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1000</v>
+      </c>
+      <c r="G42">
+        <v>93</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1000</v>
+      </c>
+      <c r="G43">
+        <v>809</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1000</v>
+      </c>
+      <c r="G44">
+        <v>676</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1000</v>
+      </c>
+      <c r="G45">
+        <v>800</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46">
+        <v>375</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1000</v>
+      </c>
+      <c r="G47">
+        <v>842</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1000</v>
+      </c>
+      <c r="G48">
+        <v>85</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1000</v>
+      </c>
+      <c r="G49">
+        <v>272</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1000</v>
+      </c>
+      <c r="G50">
+        <v>456</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1000</v>
+      </c>
+      <c r="G51">
+        <v>185</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1000</v>
+      </c>
+      <c r="G52">
+        <v>412</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1000</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1000</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1000</v>
+      </c>
+      <c r="G55">
+        <v>310</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1000</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1000</v>
+      </c>
+      <c r="G57">
+        <v>592</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1000</v>
+      </c>
+      <c r="G58">
+        <v>882</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1000</v>
+      </c>
+      <c r="G59">
+        <v>200</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1000</v>
+      </c>
+      <c r="G60">
+        <v>158</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1000</v>
+      </c>
+      <c r="G61">
+        <v>554</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1000</v>
+      </c>
+      <c r="G62">
+        <v>990</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1000</v>
+      </c>
+      <c r="G63">
+        <v>573</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1000</v>
+      </c>
+      <c r="G64">
+        <v>632</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1000</v>
+      </c>
+      <c r="G65">
+        <v>663</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1000</v>
+      </c>
+      <c r="G66">
+        <v>234</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1000</v>
+      </c>
+      <c r="G67">
+        <v>158</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1000</v>
+      </c>
+      <c r="G68">
+        <v>568</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1000</v>
+      </c>
+      <c r="G69">
+        <v>814</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1000</v>
+      </c>
+      <c r="G70">
+        <v>52</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1000</v>
+      </c>
+      <c r="G71">
+        <v>470</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1000</v>
+      </c>
+      <c r="G72">
+        <v>968</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1000</v>
+      </c>
+      <c r="G73">
+        <v>296</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1000</v>
+      </c>
+      <c r="G74">
+        <v>656</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1000</v>
+      </c>
+      <c r="G75">
+        <v>814</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1000</v>
+      </c>
+      <c r="G76">
+        <v>820</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1000</v>
+      </c>
+      <c r="G77">
+        <v>228</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1000</v>
+      </c>
+      <c r="G78">
+        <v>613</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1000</v>
+      </c>
+      <c r="G79">
+        <v>673</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" t="s">
+        <v>132</v>
+      </c>
+      <c r="D80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1000</v>
+      </c>
+      <c r="G80">
+        <v>136</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1000</v>
+      </c>
+      <c r="G81">
+        <v>276</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1000</v>
+      </c>
+      <c r="G82">
+        <v>624</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1000</v>
+      </c>
+      <c r="G83">
+        <v>437</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1000</v>
+      </c>
+      <c r="G84">
+        <v>708</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1000</v>
+      </c>
+      <c r="G85">
+        <v>770</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1000</v>
+      </c>
+      <c r="G86">
+        <v>620</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1000</v>
+      </c>
+      <c r="G87">
+        <v>650</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1000</v>
+      </c>
+      <c r="G88">
+        <v>316</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1000</v>
+      </c>
+      <c r="G89">
+        <v>154</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
       <c r="F90">
-        <v>96</v>
+        <v>1000</v>
+      </c>
+      <c r="G90">
+        <v>585</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
